--- a/data/out/__ad_target.xlsx
+++ b/data/out/__ad_target.xlsx
@@ -445,7 +445,7 @@
     <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v si_index="3">3</v>
       </c>
